--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1714907.393927485</v>
+        <v>1710193.482973121</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791238</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9179745.356803397</v>
+        <v>9177385.439241722</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12.66445782227847</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -674,10 +674,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>21.33609353234785</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,10 +747,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226574</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>138.5440881707861</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>19.77959594882228</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>53.558706426582</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>244.5743728674113</v>
+        <v>114.7494227118046</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -944,13 +944,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -984,7 +984,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -993,7 +993,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -1032,10 +1032,10 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>160.2038643913756</v>
       </c>
       <c r="W6" t="n">
-        <v>165.8258190774306</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.089140488075268</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>30.36829702595319</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>328.4137394812234</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>303.7709010575841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>22.96189723698673</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>70.65557248972621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>81.09616706593752</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372781</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>93.77010711362793</v>
       </c>
       <c r="T11" t="n">
-        <v>140.4199321822769</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1528,16 +1528,16 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993866</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>82.99846957177839</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>82.9249116246575</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442477</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456087</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901679</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>116.3097065891617</v>
       </c>
       <c r="W13" t="n">
-        <v>149.1371740843522</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>290.1894629449592</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>128.3845596236379</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>70.03904814941413</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187162</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>192.1369915452242</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838894</v>
+        <v>24.17382596574991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828906</v>
+        <v>52.06849973565004</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431739</v>
+        <v>70.57601873167836</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459979</v>
+        <v>55.72314698196077</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643952</v>
+        <v>41.29686219380049</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931863</v>
+        <v>41.2233042466796</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390859</v>
+        <v>42.97275566644687</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147803</v>
+        <v>53.79159358883901</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805008</v>
+        <v>41.14384575541105</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922201</v>
+        <v>18.98356133658298</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367792</v>
+        <v>9.882059701038898</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920524</v>
+        <v>88.00800320656622</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3554,7 @@
         <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059288</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
@@ -3983,7 +3983,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
@@ -3995,7 +3995,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
         <v>236.929075365811</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117996</v>
@@ -4201,7 +4201,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2136.790056023272</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="C2" t="n">
-        <v>2123.997674384606</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="D2" t="n">
-        <v>1738.556545601274</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="E2" t="n">
-        <v>1335.973020717819</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477965</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059667</v>
+        <v>588.4870060424361</v>
       </c>
       <c r="N2" t="n">
-        <v>2106.518148697129</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.78296973775</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.78296973775</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2053.610728188289</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023272</v>
+        <v>1887.09717312934</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023272</v>
+        <v>1663.596570688756</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023272</v>
+        <v>1663.596570688756</v>
       </c>
       <c r="V2" t="n">
-        <v>2136.790056023272</v>
+        <v>1663.596570688756</v>
       </c>
       <c r="W2" t="n">
-        <v>2136.790056023272</v>
+        <v>1663.596570688756</v>
       </c>
       <c r="X2" t="n">
-        <v>2136.790056023272</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="Y2" t="n">
-        <v>2136.790056023272</v>
+        <v>1274.143965621813</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>705.1769721472984</v>
+        <v>556.1927859813184</v>
       </c>
       <c r="C3" t="n">
-        <v>554.5227417073907</v>
+        <v>405.5385555414106</v>
       </c>
       <c r="D3" t="n">
-        <v>424.433774328871</v>
+        <v>275.4495881628909</v>
       </c>
       <c r="E3" t="n">
-        <v>287.9872834397588</v>
+        <v>139.0030972737786</v>
       </c>
       <c r="F3" t="n">
-        <v>163.5554773228906</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="G3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="L3" t="n">
-        <v>476.3497876767088</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>1014.608572686802</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875481</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466462</v>
+        <v>1552.274689874029</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535683</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.3482927843</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.287523512753</v>
+        <v>887.3033373467724</v>
       </c>
       <c r="Y3" t="n">
-        <v>856.9733065882598</v>
+        <v>707.9891204222797</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>382.5065569196679</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="C4" t="n">
-        <v>382.5065569196679</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="D4" t="n">
-        <v>362.5271670723727</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="E4" t="n">
-        <v>206.9683549315752</v>
+        <v>686.0344820192463</v>
       </c>
       <c r="F4" t="n">
-        <v>206.9683549315752</v>
+        <v>528.7085472322192</v>
       </c>
       <c r="G4" t="n">
-        <v>206.9683549315752</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="H4" t="n">
-        <v>206.9683549315752</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865304</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>618.2256087514338</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T4" t="n">
-        <v>382.5065569196679</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U4" t="n">
-        <v>382.5065569196679</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="V4" t="n">
-        <v>382.5065569196679</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="W4" t="n">
-        <v>382.5065569196679</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="X4" t="n">
-        <v>382.5065569196679</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="Y4" t="n">
-        <v>382.5065569196679</v>
+        <v>740.1341854804402</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>441.7316318101016</v>
+        <v>1439.309885240562</v>
       </c>
       <c r="C5" t="n">
-        <v>441.7316318101016</v>
+        <v>1439.309885240562</v>
       </c>
       <c r="D5" t="n">
-        <v>441.7316318101016</v>
+        <v>1439.309885240562</v>
       </c>
       <c r="E5" t="n">
-        <v>441.7316318101016</v>
+        <v>1036.726360357107</v>
       </c>
       <c r="F5" t="n">
-        <v>428.8775973804835</v>
+        <v>619.8319218870846</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022902</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475499</v>
+        <v>176.2239591887738</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475499</v>
+        <v>535.2063152162357</v>
       </c>
       <c r="L5" t="n">
-        <v>536.8159511132839</v>
+        <v>1028.526606934764</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354889</v>
+        <v>1028.526606934764</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572951</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465279</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596801</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964322</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964322</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964322</v>
+        <v>1781.416694537044</v>
       </c>
       <c r="V5" t="n">
-        <v>1628.169691667841</v>
+        <v>1439.309885240562</v>
       </c>
       <c r="W5" t="n">
-        <v>1628.169691667841</v>
+        <v>1439.309885240562</v>
       </c>
       <c r="X5" t="n">
-        <v>1238.717086600897</v>
+        <v>1439.309885240562</v>
       </c>
       <c r="Y5" t="n">
-        <v>842.2263775214985</v>
+        <v>1439.309885240562</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>718.4298364179177</v>
+        <v>640.8277454683732</v>
       </c>
       <c r="C6" t="n">
-        <v>567.7756059780099</v>
+        <v>640.8277454683732</v>
       </c>
       <c r="D6" t="n">
-        <v>437.6866385994903</v>
+        <v>510.7387780898536</v>
       </c>
       <c r="E6" t="n">
-        <v>301.240147710378</v>
+        <v>374.2922872007413</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284341</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475499</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569815</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>363.2348054569815</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653876</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875481</v>
+        <v>1669.540969100526</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466462</v>
+        <v>1669.540969100526</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535683</v>
+        <v>1940.231660716792</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734591</v>
+        <v>1763.247848915701</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413233</v>
+        <v>1553.184705594342</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.3482927843</v>
+        <v>1391.362620350529</v>
       </c>
       <c r="W6" t="n">
-        <v>1238.84746543336</v>
+        <v>1161.245374483816</v>
       </c>
       <c r="X6" t="n">
-        <v>1049.540387783372</v>
+        <v>971.9382968338273</v>
       </c>
       <c r="Y6" t="n">
-        <v>870.2261708588791</v>
+        <v>792.6240799093346</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>525.6543410279892</v>
+        <v>678.1948995799112</v>
       </c>
       <c r="C7" t="n">
-        <v>525.6543410279892</v>
+        <v>678.1948995799112</v>
       </c>
       <c r="D7" t="n">
-        <v>524.5541991208424</v>
+        <v>522.561786482426</v>
       </c>
       <c r="E7" t="n">
-        <v>524.5541991208424</v>
+        <v>522.561786482426</v>
       </c>
       <c r="F7" t="n">
-        <v>367.2282643338154</v>
+        <v>365.235851695399</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>912.2752217969281</v>
       </c>
       <c r="X7" t="n">
-        <v>710.8623597192905</v>
+        <v>678.1948995799112</v>
       </c>
       <c r="Y7" t="n">
-        <v>710.8623597192905</v>
+        <v>678.1948995799112</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>777.3391832955278</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="C8" t="n">
-        <v>777.3391832955278</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="D8" t="n">
-        <v>391.8980545121956</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="E8" t="n">
-        <v>391.8980545121956</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F8" t="n">
-        <v>379.0440200825774</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1445.616517892115</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>1885.656118784443</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1905.389306738351</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="V8" t="n">
-        <v>1563.28249744187</v>
+        <v>1765.063567799741</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.28249744187</v>
+        <v>1394.064532768029</v>
       </c>
       <c r="X8" t="n">
-        <v>1173.829892374927</v>
+        <v>1004.611927701086</v>
       </c>
       <c r="Y8" t="n">
-        <v>777.3391832955278</v>
+        <v>608.1212186216866</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068686</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1436.116207068686</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
-        <v>1952.636489659666</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>692.1827088106572</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="C10" t="n">
-        <v>521.9775908766464</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="D10" t="n">
-        <v>366.3444777791613</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="E10" t="n">
-        <v>210.7856656383638</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7856656383638</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="G10" t="n">
-        <v>210.7856656383638</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="Y10" t="n">
-        <v>877.3907275019585</v>
+        <v>100.8850758683575</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1714.395101119022</v>
+        <v>1135.015795124461</v>
       </c>
       <c r="C11" t="n">
-        <v>1393.015874768147</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="D11" t="n">
-        <v>1079.371021131009</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="E11" t="n">
-        <v>748.5837713937472</v>
+        <v>722.3132251185751</v>
       </c>
       <c r="F11" t="n">
-        <v>403.4856080699185</v>
+        <v>722.3132251185751</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2869.400789957388</v>
+        <v>2859.534777998632</v>
       </c>
       <c r="U11" t="n">
-        <v>2685.44433553818</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2685.44433553818</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.44433553818</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X11" t="n">
-        <v>2367.78800561743</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>2043.093571684225</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>328.1273454378274</v>
+        <v>474.9551552953881</v>
       </c>
       <c r="C13" t="n">
-        <v>229.7185026500105</v>
+        <v>376.5463125075715</v>
       </c>
       <c r="D13" t="n">
-        <v>145.8816646987191</v>
+        <v>292.7094745562803</v>
       </c>
       <c r="E13" t="n">
-        <v>62.11912770411553</v>
+        <v>208.9469375616768</v>
       </c>
       <c r="F13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138163</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="T13" t="n">
-        <v>1313.608118922022</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="U13" t="n">
-        <v>1099.965602310117</v>
+        <v>1230.985410981374</v>
       </c>
       <c r="V13" t="n">
-        <v>905.7825322771349</v>
+        <v>1113.50085887111</v>
       </c>
       <c r="W13" t="n">
-        <v>755.1389220909206</v>
+        <v>901.9667319484811</v>
       </c>
       <c r="X13" t="n">
-        <v>592.8548750200976</v>
+        <v>739.6826848776582</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.5390889829348</v>
+        <v>588.3668988404954</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2012.698534171915</v>
+        <v>1780.935942880363</v>
       </c>
       <c r="C14" t="n">
-        <v>1691.319307821039</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>815.124613155088</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>470.0264498312597</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5276,19 +5276,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2954.252057911387</v>
+        <v>2881.557731935811</v>
       </c>
       <c r="U14" t="n">
-        <v>2954.252057911387</v>
+        <v>2697.601277516603</v>
       </c>
       <c r="V14" t="n">
-        <v>2954.252057911387</v>
+        <v>2427.290743366315</v>
       </c>
       <c r="W14" t="n">
-        <v>2655.049298025869</v>
+        <v>2427.290743366315</v>
       </c>
       <c r="X14" t="n">
-        <v>2337.39296810512</v>
+        <v>2109.634413445566</v>
       </c>
       <c r="Y14" t="n">
-        <v>2012.698534171915</v>
+        <v>2109.634413445566</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>137.1794355089966</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>456.9185815712231</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>456.9185815712231</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1084.690231197904</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1740.468202408463</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>485.728712349937</v>
+        <v>571.4129340497491</v>
       </c>
       <c r="C16" t="n">
-        <v>387.3198695621202</v>
+        <v>473.0040912619322</v>
       </c>
       <c r="D16" t="n">
-        <v>387.3198695621202</v>
+        <v>389.1672533106409</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5573325675165</v>
+        <v>305.4047163160374</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,49 +5437,49 @@
         <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581888</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027732</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1373.881414311043</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1209.958637625471</v>
       </c>
       <c r="U16" t="n">
-        <v>1149.68534223645</v>
+        <v>1209.958637625471</v>
       </c>
       <c r="V16" t="n">
-        <v>955.5022722034676</v>
+        <v>1209.958637625471</v>
       </c>
       <c r="W16" t="n">
-        <v>761.4245029658673</v>
+        <v>998.4245107028421</v>
       </c>
       <c r="X16" t="n">
-        <v>599.1404558950444</v>
+        <v>836.1404636320192</v>
       </c>
       <c r="Y16" t="n">
-        <v>599.1404558950444</v>
+        <v>684.8246775948564</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5498,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5595,13 +5595,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5671,25 +5671,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5829,19 +5829,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5902,19 +5902,19 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184696</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M22" t="n">
         <v>629.0093992567336</v>
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -5996,10 +5996,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,10 +6008,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6078,13 +6078,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.468202408463</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6139,31 +6139,31 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>303.7986541368132</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>662.781010164275</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1249.152663612377</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1888.204925386531</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
         <v>2509.067570753567</v>
       </c>
       <c r="O26" t="n">
-        <v>3042.158533375468</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.34602550699</v>
+        <v>3483.397387236564</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605751</v>
@@ -6257,16 +6257,16 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
         <v>245.369845387968</v>
@@ -6376,13 +6376,13 @@
         <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
@@ -6391,7 +6391,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904114</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6424,10 +6424,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388518</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192012</v>
@@ -6628,7 +6628,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108111</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835514</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766599</v>
+        <v>323.857029086156</v>
       </c>
       <c r="K32" t="n">
-        <v>726.6260980185718</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1219.946389737101</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1765.947289781681</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.758573419143</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038542</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.258759170064</v>
+        <v>3192.911219976307</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>182.662530460489</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>182.662530460489</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="M33" t="n">
-        <v>810.4341800871703</v>
+        <v>1128.18091351098</v>
       </c>
       <c r="N33" t="n">
-        <v>1466.212151297729</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.73243388871</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965132</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918669</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237462</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123132</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546507</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431922</v>
+        <v>86.73045008374207</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="K34" t="n">
-        <v>256.6556820777737</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>526.0564146786437</v>
+        <v>425.1699371610695</v>
       </c>
       <c r="M34" t="n">
-        <v>712.3479930169077</v>
+        <v>611.4615154993336</v>
       </c>
       <c r="N34" t="n">
-        <v>895.537627048117</v>
+        <v>870.677065535354</v>
       </c>
       <c r="O34" t="n">
-        <v>1163.515486816895</v>
+        <v>1145.033953152045</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1376.562239503606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250194</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395522</v>
+        <v>835.7257283273688</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000944</v>
+        <v>666.3144371400715</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012442</v>
+        <v>546.1532258045797</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584499</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6977,7 +6977,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7020,19 +7020,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
-        <v>1458.313011372373</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229942</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184696</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,13 +7193,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,16 +7208,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7324,31 +7324,31 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,25 +7433,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,46 +7573,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072222</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7628,7 @@
         <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E44" t="n">
         <v>827.8895422975447</v>
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,10 +7673,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
         <v>2855.219708188067</v>
@@ -7734,10 +7734,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,43 +7813,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>969.324157721467</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498046</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
   </sheetData>
@@ -7982,22 +7982,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>193.5145772035935</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.909075792015</v>
       </c>
       <c r="O2" t="n">
-        <v>218.5182021115923</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837493</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>89.07681405485225</v>
+        <v>604.1626973083975</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431198</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>378.5202904637631</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>253.7613656518768</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>288.192811014096</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.909075792015</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>210.3493810477019</v>
+        <v>611.1777065035427</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886041</v>
+        <v>285.3870922018757</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4295544649537</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8532,7 +8532,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8541,16 +8541,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>267.5348030643886</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,25 +8766,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>499.3034269858954</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>158.2629500655365</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9243,16 +9243,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>140.5980025943154</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9416,7 +9416,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475136</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,13 +9486,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263909</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9726,16 +9726,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>220.884447093964</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10428,7 +10428,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>90.06034685691823</v>
@@ -10437,16 +10437,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>709.3350389104426</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>496.3264449482919</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10668,22 +10668,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>577.006990218999</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>709.3350389104421</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
@@ -10899,10 +10899,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10911,13 +10911,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>237.0692670214292</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>9.767351839168628</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>95.4932009668169</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338894</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187162</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>75.93153274349025</v>
       </c>
       <c r="W13" t="n">
-        <v>60.28161156905003</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>20.31894215580773</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.7701071136281</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>21.80272439780762</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>59.67056243512999</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>17.28179410817797</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>800873.9542518107</v>
+        <v>799670.8590242901</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>800873.9542518107</v>
+        <v>799670.8590242901</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>720925.0703511091</v>
+        <v>720925.0703511093</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>720925.0703511091</v>
+        <v>720925.0703511094</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>504930.098661399</v>
+      </c>
+      <c r="C2" t="n">
+        <v>504930.098661399</v>
+      </c>
+      <c r="D2" t="n">
         <v>504930.0986613992</v>
       </c>
-      <c r="C2" t="n">
-        <v>504930.0986613991</v>
-      </c>
-      <c r="D2" t="n">
-        <v>504930.0986613989</v>
-      </c>
       <c r="E2" t="n">
-        <v>446205.2655883213</v>
+        <v>446205.2655883212</v>
       </c>
       <c r="F2" t="n">
         <v>446205.2655883211</v>
       </c>
       <c r="G2" t="n">
+        <v>504930.0986613983</v>
+      </c>
+      <c r="H2" t="n">
         <v>504930.0986613982</v>
       </c>
-      <c r="H2" t="n">
-        <v>504930.0986613984</v>
-      </c>
       <c r="I2" t="n">
-        <v>504930.0986613984</v>
+        <v>504930.0986613985</v>
       </c>
       <c r="J2" t="n">
-        <v>504930.0986613992</v>
+        <v>504930.0986613993</v>
       </c>
       <c r="K2" t="n">
-        <v>504930.0986613991</v>
+        <v>504930.0986613987</v>
       </c>
       <c r="L2" t="n">
-        <v>504930.0986613996</v>
+        <v>504930.0986613983</v>
       </c>
       <c r="M2" t="n">
-        <v>504930.0986613984</v>
+        <v>504930.098661399</v>
       </c>
       <c r="N2" t="n">
-        <v>504930.0986613983</v>
+        <v>504930.0986613985</v>
       </c>
       <c r="O2" t="n">
-        <v>504930.0986613985</v>
+        <v>504930.0986613995</v>
       </c>
       <c r="P2" t="n">
-        <v>504930.0986613989</v>
+        <v>504930.0986613994</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062183</v>
+        <v>22558.4295340134</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668194</v>
+        <v>47425.32553668192</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728548</v>
+        <v>62456.24177539665</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081118</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277125</v>
+        <v>27767.69404277131</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840229</v>
+        <v>216193.9885327255</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840229</v>
+        <v>216193.9885327255</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26430,7 +26430,7 @@
         <v>125701.6674923646</v>
       </c>
       <c r="G4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="H4" t="n">
         <v>173460.5839839468</v>
@@ -26442,10 +26442,10 @@
         <v>174211.0764483299</v>
       </c>
       <c r="K4" t="n">
-        <v>174211.0764483299</v>
+        <v>174211.07644833</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478466</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,28 +26485,28 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
+        <v>58169.76931551966</v>
+      </c>
+      <c r="I5" t="n">
         <v>58169.76931551967</v>
-      </c>
-      <c r="I5" t="n">
-        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
+        <v>58169.76931551967</v>
+      </c>
+      <c r="O5" t="n">
         <v>58169.76931551966</v>
-      </c>
-      <c r="O5" t="n">
-        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45355.93974550645</v>
+        <v>49707.38555980113</v>
       </c>
       <c r="C6" t="n">
-        <v>227560.8880373624</v>
+        <v>223566.0425938563</v>
       </c>
       <c r="D6" t="n">
-        <v>220392.5670156909</v>
+        <v>212656.2777922996</v>
       </c>
       <c r="E6" t="n">
-        <v>155195.0169220716</v>
+        <v>154985.2853753818</v>
       </c>
       <c r="F6" t="n">
-        <v>267317.578396116</v>
+        <v>267107.8468494264</v>
       </c>
       <c r="G6" t="n">
-        <v>225874.4198252499</v>
+        <v>225874.41982525</v>
       </c>
       <c r="H6" t="n">
-        <v>273299.745361932</v>
+        <v>273299.7453619318</v>
       </c>
       <c r="I6" t="n">
         <v>273299.745361932</v>
       </c>
       <c r="J6" t="n">
-        <v>60257.8277646472</v>
+        <v>66774.11291922044</v>
       </c>
       <c r="K6" t="n">
-        <v>267059.9769591497</v>
+        <v>267059.9769591493</v>
       </c>
       <c r="L6" t="n">
-        <v>211877.388024529</v>
+        <v>207828.5508140556</v>
       </c>
       <c r="M6" t="n">
-        <v>231098.915902309</v>
+        <v>230047.2208911214</v>
       </c>
       <c r="N6" t="n">
-        <v>273299.7453619319</v>
+        <v>273299.7453619321</v>
       </c>
       <c r="O6" t="n">
-        <v>245532.0513191608</v>
+        <v>245532.0513191617</v>
       </c>
       <c r="P6" t="n">
-        <v>273299.7453619325</v>
+        <v>273299.745361933</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
+        <v>93.99127447431646</v>
+      </c>
+      <c r="K2" t="n">
         <v>93.99127447431648</v>
       </c>
-      <c r="K2" t="n">
-        <v>93.99127447431646</v>
-      </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,28 +26805,28 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="I4" t="n">
         <v>776.4890963014442</v>
       </c>
-      <c r="I4" t="n">
-        <v>776.4890963014441</v>
-      </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.439195029314</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="O4" t="n">
         <v>776.4890963014441</v>
-      </c>
-      <c r="O4" t="n">
-        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660685</v>
+        <v>78.07030221924582</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155135</v>
+        <v>17.58004954287451</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346414</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.3622249971648</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407254</v>
+        <v>117.1268713042791</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,10 +27379,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>376.5792886598202</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>16.27689104498543</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27442,7 +27442,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27467,10 +27467,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343378</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>48.86991870270239</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27540,19 +27540,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>134.2971860176881</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>100.4445175928075</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27622,16 +27622,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>164.4567550894655</v>
+        <v>294.2817052450723</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27752,10 +27752,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>60.11073722126807</v>
       </c>
       <c r="W6" t="n">
-        <v>61.99025433061544</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>152.9876414784351</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27834,7 +27834,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>250.128801022181</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>80.6173884756534</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>34.91484014593271</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28029,7 +28029,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.8015838723062</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.2253680817969</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="17">
@@ -28743,20 +28743,20 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>35.71049010668813</v>
-      </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28980,16 +28980,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>35.71049010668816</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>35.71049010668821</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29068,7 +29068,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -29217,11 +29217,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>35.71049010668816</v>
+      </c>
+      <c r="K25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.71049010668797</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>86.65052755599478</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>86.65052755599527</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M29" t="n">
-        <v>30.27223765901226</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>30.27223765901232</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="32">
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K32" t="n">
-        <v>48.65992738833341</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>43.49509683160079</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>76.79385455031439</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P34" t="n">
-        <v>94.97643844045342</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668825</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>5.636002634528595</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155846</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
         <v>130.3599693155844</v>
@@ -30402,28 +30402,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30654,13 +30654,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>5.636002634528086</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30885,19 +30885,19 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>5.63600263452814</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.636002634528316</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -34702,22 +34702,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344374</v>
+        <v>43.78952560586624</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O2" t="n">
-        <v>68.95436468749594</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344374</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.704701200685595</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>291.4369256444485</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>136.0815277095307</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>138.4677594163687</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>117.96225899839</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344374</v>
+        <v>200.014979347709</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>298.1281072240285</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35261,16 +35261,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>180.451438245074</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>409.2430801289772</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257294</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488449</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>75.81849273220313</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36051,7 +36051,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>220.7505244816469</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065884</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,13 +36206,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>249.769892037502</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>201.4959849287082</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36364,7 +36364,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510925</v>
       </c>
       <c r="N23" t="n">
         <v>533.1427107449111</v>
@@ -36446,16 +36446,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634529087</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36534,7 +36534,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.16725411684045</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>232.7614092820838</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>619.7932383009064</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36838,22 +36838,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101038</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>381.9767751656</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>135.5123342397974</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261599</v>
+        <v>258.8908014987989</v>
       </c>
       <c r="K32" t="n">
-        <v>411.268367820113</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,16 +37078,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176211</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458571</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>395.1996343381885</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>623.9629260562759</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>409.2430801289772</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>261.8338889252732</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>277.1281693097887</v>
       </c>
       <c r="P34" t="n">
-        <v>216.0634745784116</v>
+        <v>233.8669559106681</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>484.6198681696871</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>623.9629260562755</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529181</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37479,7 +37479,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724868</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K38" t="n">
         <v>362.6084404317796</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37631,13 +37631,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,13 +37713,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37950,13 +37950,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644680569</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38181,19 +38181,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724863</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.092766644680799</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
